--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,43 +22,67 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>006132</t>
+  </si>
+  <si>
+    <t>006133</t>
+  </si>
+  <si>
     <t>009694</t>
   </si>
   <si>
-    <t>006132</t>
-  </si>
-  <si>
-    <t>006133</t>
+    <t>万家智造优势混合A</t>
+  </si>
+  <si>
+    <t>万家智造优势混合C</t>
   </si>
   <si>
     <t>华安安利混合</t>
   </si>
   <si>
-    <t>万家智造优势混合A</t>
-  </si>
-  <si>
-    <t>万家智造优势混合C</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>93.45</t>
   </si>
   <si>
     <t>40.69</t>
   </si>
   <si>
-    <t>93.45</t>
+    <t>3.64</t>
   </si>
   <si>
     <t>1.77</t>
   </si>
   <si>
-    <t>3.64</t>
+    <t>0.0233</t>
+  </si>
+  <si>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>0.0009</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,65 +462,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006132</t>
-  </si>
-  <si>
-    <t>006133</t>
-  </si>
-  <si>
-    <t>009694</t>
-  </si>
-  <si>
-    <t>万家智造优势混合A</t>
-  </si>
-  <si>
-    <t>万家智造优势混合C</t>
-  </si>
-  <si>
-    <t>华安安利混合</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>93.45</t>
-  </si>
-  <si>
-    <t>40.69</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>0.0233</t>
-  </si>
-  <si>
-    <t>0.0036</t>
-  </si>
-  <si>
-    <t>0.0009</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1256,4 +1257,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1265,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,17 +1277,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1296,14 +1317,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1312,14 +1355,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -1328,13 +1461,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1398,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,17 +1410,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1429,14 +1450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1445,14 +1488,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1461,14 +1594,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -1477,13 +1610,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,171 +455,381 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安安利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>40.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,36 +886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>78.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1385</t>
+          <t>0.1592</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -714,36 +924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>004434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>博时逆向投资混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.15</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1235</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -752,36 +962,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0559</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -790,36 +1000,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -828,36 +1038,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>004435</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>博时逆向投资混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -866,32 +1076,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -904,36 +1114,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +1149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,36 +1206,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.81</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1592</t>
+          <t>0.1385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1036,36 +1244,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004434</t>
+          <t>000264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时逆向投资混合A</t>
+          <t>博时内需增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.35</t>
+          <t>78.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.1235</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1074,36 +1282,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0559</t>
+          <t>0.0353</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1112,36 +1320,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>中融高股息精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1150,36 +1358,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004435</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时逆向投资混合C</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.35</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1188,32 +1396,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.49</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1226,298 +1434,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>006124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>中融高股息精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.49</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010938</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010939</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010938</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010939</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1531,112 +1477,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>009694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.3120</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -660,35 +677,111 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010939</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.2654</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -764,26 +857,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -802,26 +895,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +949,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,36 +979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>010938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.81</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1592</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -924,224 +1017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004434</t>
+          <t>010939</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时逆向投资混合A</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.35</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004435</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000892</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1206,36 +1111,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>78.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1385</t>
+          <t>0.1592</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1244,36 +1149,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>004434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>博时逆向投资混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.15</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1235</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1282,36 +1187,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0559</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1320,36 +1225,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1358,36 +1263,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>004435</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>博时逆向投资混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1396,32 +1301,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1434,36 +1339,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1472,6 +1375,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
+++ b/数据整理/stocks/A股/科创板/688059-华锐精密.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -782,138 +1501,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010938</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010939</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -989,26 +1576,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1027,26 +1614,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1668,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1111,36 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>010938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.81</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1592</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1149,224 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004434</t>
+          <t>010939</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时逆向投资混合A</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.35</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004435</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000892</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1431,36 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>78.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1385</t>
+          <t>0.1592</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1469,36 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>004434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>博时逆向投资混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.15</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1235</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1507,36 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0559</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1545,36 +1944,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1583,36 +1982,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>004435</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>博时逆向投资混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1621,32 +2020,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1659,36 +2058,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +2094,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
